--- a/src/main/resources/templates/供应商账单模板.xlsx
+++ b/src/main/resources/templates/供应商账单模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12460"/>
+    <workbookView windowWidth="27900" windowHeight="12440"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>大微应付账单  2022-06-01 - 2022-06-30</t>
   </si>
@@ -53,9 +53,6 @@
   </si>
   <si>
     <t>币别</t>
-  </si>
-  <si>
-    <t>{.transportFeeTitle}</t>
   </si>
   <si>
     <t>{.transportFee}</t>
@@ -112,9 +109,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -147,17 +144,122 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,53 +271,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,75 +289,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -306,43 +303,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -354,7 +459,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -366,132 +483,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -552,29 +549,28 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,6 +590,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -611,26 +642,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -654,152 +677,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -828,7 +851,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1155,8 +1181,8 @@
   <sheetPr/>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1260,9 +1286,7 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="11" t="s">
-        <v>14</v>
-      </c>
+      <c r="L4" s="11"/>
       <c r="M4" s="2"/>
     </row>
     <row r="5" ht="23" customHeight="1" spans="1:12">
@@ -1271,31 +1295,31 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>16</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="11">
+      <c r="L5" s="12">
         <v>4600</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="6:12">
       <c r="F6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="L6" s="2">
         <v>1150</v>
@@ -1303,13 +1327,13 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="6:12">
       <c r="F7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="L7" s="2">
         <v>1150</v>
@@ -1317,13 +1341,13 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="6:12">
       <c r="F8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="L8" s="2">
         <v>1150</v>
@@ -1331,13 +1355,13 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="6:12">
       <c r="F9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="L9" s="2">
         <v>1150</v>
@@ -1347,7 +1371,7 @@
     <row r="11" s="2" customFormat="1"/>
     <row r="12" s="2" customFormat="1"/>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="14">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:A4"/>
@@ -1361,6 +1385,7 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/src/main/resources/templates/供应商账单模板.xlsx
+++ b/src/main/resources/templates/供应商账单模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27900" windowHeight="12440"/>
+    <workbookView windowWidth="27900" windowHeight="12460"/>
   </bookViews>
   <sheets>
     <sheet name="sheet" sheetId="2" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>大微应付账单  2022-06-01 - 2022-06-30</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>币别</t>
+  </si>
+  <si>
+    <t>{.transportFeeTitle}</t>
   </si>
   <si>
     <t>{.transportFee}</t>
@@ -109,9 +112,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -144,8 +147,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -153,12 +187,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,70 +206,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,6 +281,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -256,39 +289,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -303,192 +306,192 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="15">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -549,28 +552,29 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,41 +590,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -642,18 +611,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -677,152 +654,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -851,10 +828,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
@@ -1181,8 +1155,8 @@
   <sheetPr/>
   <dimension ref="A1:T12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1286,7 +1260,9 @@
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
       <c r="K4" s="9"/>
-      <c r="L4" s="11"/>
+      <c r="L4" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="M4" s="2"/>
     </row>
     <row r="5" ht="23" customHeight="1" spans="1:12">
@@ -1295,31 +1271,31 @@
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="6" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
       <c r="K5" s="6"/>
-      <c r="L5" s="12">
+      <c r="L5" s="11">
         <v>4600</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="6:12">
       <c r="F6" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="L6" s="2">
         <v>1150</v>
@@ -1327,13 +1303,13 @@
     </row>
     <row r="7" s="2" customFormat="1" spans="6:12">
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L7" s="2">
         <v>1150</v>
@@ -1341,13 +1317,13 @@
     </row>
     <row r="8" s="2" customFormat="1" spans="6:12">
       <c r="F8" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L8" s="2">
         <v>1150</v>
@@ -1355,13 +1331,13 @@
     </row>
     <row r="9" s="2" customFormat="1" spans="6:12">
       <c r="F9" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J9" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L9" s="2">
         <v>1150</v>
@@ -1371,7 +1347,7 @@
     <row r="11" s="2" customFormat="1"/>
     <row r="12" s="2" customFormat="1"/>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="13">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="A3:A4"/>
@@ -1385,7 +1361,6 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
     <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
